--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DipWebDev\skillset\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553681D-4338-4D7B-8F81-CF796A0B11C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0260E51-28AA-459B-9BF8-60598E9AC551}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Project scope template completed</t>
   </si>
   <si>
-    <t>John and Nathan</t>
-  </si>
-  <si>
     <t>Risk management plan completed</t>
   </si>
   <si>
@@ -133,16 +130,54 @@
   </si>
   <si>
     <t>Hazardous substances register</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Nathan</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,10 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,22 +530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="75.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -523,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -537,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -551,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -561,7 +599,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -571,7 +609,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -581,7 +619,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -595,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -609,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -617,68 +655,71 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -686,12 +727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -700,36 +741,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -738,34 +779,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -774,22 +815,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -798,12 +839,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -814,5 +855,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0260E51-28AA-459B-9BF8-60598E9AC551}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2DF63-33F1-4FE0-9C27-24DD58C36C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Project Implementation Plan</t>
   </si>
@@ -60,30 +60,12 @@
     <t>Style guide followed for BizOps</t>
   </si>
   <si>
-    <t>All 28 critea items are met</t>
-  </si>
-  <si>
-    <t>Induction plan template with example and explantory information completed</t>
-  </si>
-  <si>
-    <t>Project implementation plan completed</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>Project scope template completed</t>
-  </si>
-  <si>
-    <t>Risk management plan completed</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
-    <t>Sample project staff meeting agenda completed</t>
-  </si>
-  <si>
     <t>George</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t>Additional documents - each to be accompanied with example and explanatory information</t>
   </si>
   <si>
-    <t>WHS hazard report form template with example and explanatory information completed</t>
-  </si>
-  <si>
     <t>Emergency contacts list</t>
   </si>
   <si>
@@ -118,9 +97,6 @@
   </si>
   <si>
     <t>Risk management plan</t>
-  </si>
-  <si>
-    <t>WHS hazard inpsection procedure</t>
   </si>
   <si>
     <t>WHS hazard inspection quick checklist</t>
@@ -153,6 +129,27 @@
       </rPr>
       <t xml:space="preserve"> and Nathan</t>
     </r>
+  </si>
+  <si>
+    <t>All 28 criteria items are met</t>
+  </si>
+  <si>
+    <t>WHS hazard inspection procedure</t>
+  </si>
+  <si>
+    <t>Sample project staff meeting agenda</t>
+  </si>
+  <si>
+    <t>Project implementation plan</t>
+  </si>
+  <si>
+    <t>Project scope template</t>
+  </si>
+  <si>
+    <t>Induction plan template with example and explanatory information</t>
+  </si>
+  <si>
+    <t>WHS hazard report form template with example and explanatory information</t>
   </si>
 </sst>
 </file>
@@ -531,13 +528,13 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -614,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -624,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -638,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -652,10 +649,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
         <v>0.5</v>
@@ -666,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -699,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -710,7 +707,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -732,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -746,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -760,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -770,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -784,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,10 +792,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -820,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -830,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -844,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2DF63-33F1-4FE0-9C27-24DD58C36C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEA1650-0B0B-418C-A1D5-24FE83E9639F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Project Implementation Plan</t>
   </si>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,17 +210,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,7 +538,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,8 +613,12 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -613,8 +627,12 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEA1650-0B0B-418C-A1D5-24FE83E9639F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4347FB8-32AC-4E80-A815-6226AA03EFDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="28680" yWindow="-4815" windowWidth="38640" windowHeight="21240" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Criteria items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>Project Implementation Plan</t>
   </si>
@@ -131,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>All 28 criteria items are met</t>
-  </si>
-  <si>
     <t>WHS hazard inspection procedure</t>
   </si>
   <si>
@@ -150,13 +148,469 @@
   </si>
   <si>
     <t>WHS hazard report form template with example and explanatory information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe how you critiqued ideas and information from WHS legislation, policies, procedures and programs </t>
+  </si>
+  <si>
+    <t>Ensure a Safe Workplace</t>
+  </si>
+  <si>
+    <t>Topic 1: 1A</t>
+  </si>
+  <si>
+    <t>(page 2)</t>
+  </si>
+  <si>
+    <t>Topic 1: 1B</t>
+  </si>
+  <si>
+    <t>(page 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain how you established, implemented, maintained and evaluated effective and compliant participation arrangements for managing WHS. </t>
+  </si>
+  <si>
+    <t>Topic 2: 2A</t>
+  </si>
+  <si>
+    <t>(page 34)</t>
+  </si>
+  <si>
+    <t>WHSM ch3.6 WHS Risk Assessment</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Project Implementation</t>
+  </si>
+  <si>
+    <t>Fanny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 2   </t>
+  </si>
+  <si>
+    <t>(page 33)</t>
+  </si>
+  <si>
+    <t>WHSM ch4.5</t>
+  </si>
+  <si>
+    <t>Attachment 4 WHS Induction for Contractors/Visitors  Attachment 5 Detailed WHS Induction Checklist for Contractors</t>
+  </si>
+  <si>
+    <t>Attachment 6 WHS Training Register</t>
+  </si>
+  <si>
+    <t>WHS Hazard Inspection Procedure</t>
+  </si>
+  <si>
+    <t>Attachment 9</t>
+  </si>
+  <si>
+    <t>WHS Hazard Inspection Quick Checklist</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>Topic 3: 3B (page 67)</t>
+  </si>
+  <si>
+    <t>Auditing process</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>7 Risk Management Plan Template</t>
+  </si>
+  <si>
+    <t>Checklist Audit</t>
+  </si>
+  <si>
+    <t>reference:</t>
+  </si>
+  <si>
+    <t>Organisation Charts</t>
+  </si>
+  <si>
+    <t>Organisational Operational Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 3: 3C &amp; 3D   </t>
+  </si>
+  <si>
+    <t>(page 71 &amp; page 75)</t>
+  </si>
+  <si>
+    <t>Topic 3: 3D  (page 78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 3: 3E   </t>
+  </si>
+  <si>
+    <t>(page 80)</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 4: 4A   </t>
+  </si>
+  <si>
+    <t>(page 90)</t>
+  </si>
+  <si>
+    <t>Attachment 3 Induction Plan Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 4: 4B   </t>
+  </si>
+  <si>
+    <t>(page 95)</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Topic 4: 4B  (page 99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 4: 4C   </t>
+  </si>
+  <si>
+    <t>(page 101) Check Pauls work</t>
+  </si>
+  <si>
+    <t>Topic 3 &amp; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 4: 4D   </t>
+  </si>
+  <si>
+    <t>(page 108)</t>
+  </si>
+  <si>
+    <t>After construction and implementation of the policies</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic 4: 4E   </t>
+  </si>
+  <si>
+    <t>(page 112)</t>
+  </si>
+  <si>
+    <t>Checking legislation stated in document</t>
+  </si>
+  <si>
+    <t>And checking the website that it’s compliant</t>
+  </si>
+  <si>
+    <t>https://www.safeworkaustralia.gov.au/law-and-regulation</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WHSM ch6 Report </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WHSM ch6 Report </t>
+    </r>
+  </si>
+  <si>
+    <t>Refer to</t>
+  </si>
+  <si>
+    <r>
+      <t>Project Implementation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; adherence to the WHS Act Legislation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Explain how you identified duty holders and defined WHS responsibilities for all workplace personnel in the work area according to WHS legislation, policies, procedures and programs.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHSMS ch3.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Responsibilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHSM ch3.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultation and Communication Arrangements</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe methods used to monitor adherence to legal and regulatory rights and responsibilities for self and others in relation to WHS. </t>
+  </si>
+  <si>
+    <r>
+      <t>WHSM ch3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Work Health and Safety (WHS) Policy</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain how you identified and approved financial and human resources required by the WHSMS.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Scope</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain your strategies for working with contractors and their representatives to set up and maintain participation arrangements according to relevant WHS legislation. </t>
+  </si>
+  <si>
+    <t>Explain how you used consultative or collaborative processes as an integral part of the decision-making process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was your process for developing procedures for ongoing hazard identification, and assessment and control of associated risks? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSM ch4.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workplace Hazard Inspections</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachments 8 </t>
+  </si>
+  <si>
+    <t>Describe why it was essential that you included hazard identification at the planning stage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How have you designed and evaluated stages of any change in the BizOps workplace to ensure that new hazards are not created by the proposed changes and existing hazards are controlled? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How did you establish, implement, maintain and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evaluate procedures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for effectively identifying hazards?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe strategies deployed to assess and control BizOps risks using the hierarchy of risk control. </t>
+  </si>
+  <si>
+    <t>How did you select and implement BizOps risk controls according to the hierarchy of control and WHS legislative requirements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe who in the BizOps workplace took responsibility for developing, implementing and reviewing policies, procedures and processes in accordance with organisational and legislative requirements. </t>
+  </si>
+  <si>
+    <t>Describe how you identified inadequacies in existing risk controls according to the hierarchy of control and WHS legislative requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain the objective for promptly supplying resources to enable implementation of new measures. </t>
+  </si>
+  <si>
+    <t>What systematic analytical processes assisted you in gathering relevant BizOps information?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe how you used identifying and evaluating options against agreed criteria. </t>
+  </si>
+  <si>
+    <t>Identify requirements for requesting expert WHS advice, and how you would request this advice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop a suitable WHS induction and training program for all workers in a work area as part of the organisation's training program. </t>
+  </si>
+  <si>
+    <t>How did you establish, implement, maintain and evaluate effective and compliant participation arrangements for managing WHS, including identifying duty holders, identifying and approving the required resources, and developing and implementing a training program?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain the system for WHS record keeping that you used and how you allowed for the identification of patterns of occupational injury and disease. </t>
+  </si>
+  <si>
+    <t>Describe how you would record WHS decisions according to organisational requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you measure and evaluate the WHSMS in line with the organisation's quality systems framework? </t>
+  </si>
+  <si>
+    <r>
+      <t>Refer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to BizOps Company Business Plan Document</t>
+    </r>
+  </si>
+  <si>
+    <t>Describe the methods used to establish, implement, maintain and evaluate a WHSMS for a work area of BizOps Enterprises in accordance with WHS legislation, including policies, procedures and record keeping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What improvements did you develop and implement into the WHSMS to achieve organisational WHS objectives? </t>
+  </si>
+  <si>
+    <t>Describe the plans you developed or processes you used to manage relatively complex WHS management tasks with an awareness of how they may contribute to longer-term operational and strategic goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain how you ensured compliance with the WHS legislative framework to achieve, as a minimum, WHS legal requirements. </t>
+  </si>
+  <si>
+    <t>Delegate and Source</t>
+  </si>
+  <si>
+    <t>Task 5 - 28 Criteria Items</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Audit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All 28 criteria items are met</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ** Check the Criteria items tab for 'Volunteer' work.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +640,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +709,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -209,19 +733,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -535,30 +1315,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -568,11 +1349,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -582,11 +1363,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -596,50 +1377,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -648,12 +1434,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -662,59 +1448,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -732,7 +1518,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
@@ -746,7 +1532,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -760,7 +1546,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
@@ -774,17 +1560,19 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
@@ -798,7 +1586,7 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -809,7 +1597,7 @@
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -820,8 +1608,8 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -834,17 +1622,19 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -858,7 +1648,7 @@
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -872,4 +1662,1179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF50D834-31B8-4264-8EED-BFEB6F9FB230}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>3</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>4</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>6</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>8</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>9</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>10</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>11</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>12</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>13</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>14</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>15</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>16</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="37"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>17</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>18</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <v>19</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>20</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="32">
+        <v>21</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="26"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="28">
+        <v>22</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="37"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="37"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="37"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="31"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="32">
+        <v>23</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="28">
+        <v>24</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="37"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="37"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="31"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="32">
+        <v>25</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="22"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="28">
+        <v>26</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="37"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="37"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="29"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="32">
+        <v>27</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="20"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="28">
+        <v>28</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="27"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="37"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="27"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="37"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="27"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="37"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="27"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="27"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="37"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="29"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="D90:D95"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4347FB8-32AC-4E80-A815-6226AA03EFDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D035F8-79CC-4CA6-93C8-1180C1059791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="38640" windowHeight="21240" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -909,95 +909,95 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1384,10 +1384,10 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1416,7 +1416,7 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1563,10 +1563,10 @@
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1625,10 +1625,10 @@
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1684,157 +1684,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>3</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="40">
         <v>4</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1842,24 +1842,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>5</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
@@ -1880,10 +1880,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="40">
         <v>6</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1894,16 +1894,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="9" t="s">
         <v>46</v>
       </c>
@@ -1922,15 +1922,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+      <c r="A28" s="18">
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1944,13 +1944,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="40">
         <v>8</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1958,65 +1958,65 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="40">
         <v>10</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -2024,14 +2024,14 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="17"/>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
@@ -2040,24 +2040,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <v>11</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2068,14 +2068,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="5" t="s">
         <v>33</v>
       </c>
@@ -2084,67 +2084,67 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="40">
         <v>12</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>13</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="A50" s="40">
         <v>14</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -2152,14 +2152,14 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="9" t="s">
         <v>59</v>
       </c>
@@ -2168,135 +2168,135 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="15"/>
       <c r="D53" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="15"/>
       <c r="D54" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16"/>
       <c r="D55" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>15</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="35"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="22"/>
+      <c r="D58" s="35"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="23"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60" s="40">
         <v>16</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="37"/>
+      <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
+      <c r="A63" s="30">
         <v>17</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="22"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="23"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66" s="40">
         <v>18</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -2304,8 +2304,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="9" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2314,46 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
+      <c r="A70" s="30">
         <v>19</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
+      <c r="A72" s="40">
         <v>20</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="43" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2364,16 +2364,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="9" t="s">
         <v>69</v>
       </c>
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="9" t="s">
         <v>70</v>
       </c>
@@ -2392,433 +2392,367 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="32">
+      <c r="A77" s="30">
         <v>21</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="46" t="s">
         <v>118</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="38"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="38"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="25"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="26"/>
+      <c r="D81" s="39"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="28">
+      <c r="A82" s="40">
         <v>22</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C82" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="44"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="37"/>
+      <c r="D84" s="44"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="37"/>
+      <c r="D85" s="44"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="45"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="32">
+      <c r="A87" s="30">
         <v>23</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="46" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="22"/>
+      <c r="D88" s="35"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="23"/>
+      <c r="D89" s="36"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
+      <c r="A90" s="40">
         <v>24</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="37"/>
+      <c r="D91" s="44"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="44"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="37"/>
+      <c r="D93" s="44"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="37"/>
+      <c r="D94" s="44"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="31"/>
+      <c r="D95" s="45"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="32">
+      <c r="A96" s="30">
         <v>25</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="22"/>
+      <c r="D97" s="35"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="22"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="23"/>
+      <c r="D99" s="36"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="28">
+      <c r="A100" s="40">
         <v>26</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="37"/>
+      <c r="D101" s="44"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="37"/>
+      <c r="D102" s="44"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="31"/>
+      <c r="D103" s="45"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="32">
+      <c r="A104" s="30">
         <v>27</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C104" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D104" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="22"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="20"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D106" s="23"/>
+      <c r="D106" s="36"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="28">
+      <c r="A107" s="40">
         <v>28</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="43" t="s">
         <v>126</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="37"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="37"/>
+      <c r="D108" s="44"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="37"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="37"/>
+      <c r="D109" s="44"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="37"/>
+      <c r="D110" s="44"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="37"/>
+      <c r="D111" s="44"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="37"/>
+      <c r="D112" s="44"/>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="37"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="44"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="37"/>
+      <c r="D114" s="44"/>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="44" t="s">
+      <c r="A115" s="41"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D115" s="37"/>
+      <c r="D115" s="44"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="29"/>
-      <c r="B116" s="31"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="31"/>
+      <c r="D116" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="A77:A81"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="D77:D81"/>
     <mergeCell ref="B104:B106"/>
@@ -2831,6 +2765,72 @@
     <mergeCell ref="A90:A95"/>
     <mergeCell ref="B90:B95"/>
     <mergeCell ref="D90:D95"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D035F8-79CC-4CA6-93C8-1180C1059791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FDA22-500F-4A84-8B58-4DE6B89FA32A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -932,23 +932,62 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,46 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,8 +1671,8 @@
   </sheetPr>
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C115" sqref="C108:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,139 +1702,139 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1842,24 +1842,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="39">
         <v>5</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
@@ -1880,10 +1880,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1894,16 +1894,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="9" t="s">
         <v>46</v>
       </c>
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12" t="s">
         <v>49</v>
@@ -1944,13 +1944,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="33">
         <v>8</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1958,62 +1958,62 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="39">
         <v>9</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="A36" s="33">
         <v>10</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2024,14 +2024,14 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="17"/>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
@@ -2040,24 +2040,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="22"/>
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="39">
         <v>11</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2068,14 +2068,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="5" t="s">
         <v>33</v>
       </c>
@@ -2084,64 +2084,64 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
+      <c r="A46" s="33">
         <v>12</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="39">
         <v>13</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
+      <c r="A50" s="33">
         <v>14</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="24" t="s">
@@ -2152,14 +2152,14 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="9" t="s">
         <v>59</v>
       </c>
@@ -2168,132 +2168,132 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="15"/>
       <c r="D53" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="15"/>
       <c r="D54" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="16"/>
       <c r="D55" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+      <c r="A56" s="39">
         <v>15</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="35"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="36"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
+      <c r="A60" s="33">
         <v>16</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="44"/>
+      <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="A63" s="39">
         <v>17</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="35"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="A66" s="33">
         <v>18</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C66" s="24" t="s">
@@ -2304,8 +2304,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="9" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2314,46 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="A70" s="39">
         <v>19</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="36"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="29"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
+      <c r="A72" s="33">
         <v>20</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2364,16 +2364,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="9" t="s">
         <v>69</v>
       </c>
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="9" t="s">
         <v>70</v>
       </c>
@@ -2392,406 +2392,387 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+      <c r="A77" s="39">
         <v>21</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="27" t="s">
         <v>118</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="35"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="38"/>
+      <c r="D78" s="31"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="35"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="38"/>
+      <c r="D79" s="31"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="35"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="38"/>
+      <c r="D80" s="31"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
+      <c r="A82" s="33">
         <v>22</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="44"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="44"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="44"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="44"/>
+      <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="45"/>
+      <c r="D86" s="38"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="A87" s="39">
         <v>23</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="27" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="35"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="35"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="36"/>
+      <c r="D89" s="29"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="A90" s="33">
         <v>24</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="44"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="44"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="44"/>
+      <c r="D93" s="37"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="44"/>
+      <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="45"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="45"/>
+      <c r="D95" s="38"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
+      <c r="A96" s="39">
         <v>25</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="35"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="35"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="35"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="36"/>
+      <c r="D99" s="29"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
+      <c r="A100" s="33">
         <v>26</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="44"/>
+      <c r="D101" s="37"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="44"/>
+      <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="45"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="45"/>
+      <c r="D103" s="38"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
+      <c r="A104" s="39">
         <v>27</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="27" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="35"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="35"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D106" s="36"/>
+      <c r="D106" s="29"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
+      <c r="A107" s="33">
         <v>28</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="44"/>
+      <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="44"/>
+      <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="44"/>
+      <c r="D110" s="37"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="44"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="44"/>
+      <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="44"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="44"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="44"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="44"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="44"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="44"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D115" s="44"/>
+      <c r="D115" s="37"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="45"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="B100:B103"/>
     <mergeCell ref="D100:D103"/>
@@ -2808,29 +2789,48 @@
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -5,34 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D035F8-79CC-4CA6-93C8-1180C1059791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9869E3C-ED58-4313-BD5B-C21FC77DE6DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria items" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>Project Implementation Plan</t>
   </si>
@@ -605,12 +599,15 @@
   <si>
     <t xml:space="preserve"> ** Check the Criteria items tab for 'Volunteer' work.</t>
   </si>
+  <si>
+    <t>Kieran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,8 +696,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +867,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -932,23 +944,62 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,50 +1007,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,25 +1332,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1389,7 +1404,7 @@
       </c>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1420,7 +1435,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1434,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1448,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1473,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1509,12 +1524,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1556,19 +1571,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1582,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1593,7 +1610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1630,7 +1647,7 @@
       </c>
       <c r="D26" s="25"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1644,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1660,7 +1677,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1675,21 +1692,21 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
         <v>89</v>
@@ -1701,165 +1718,165 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="38"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="D12" s="43"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="28"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="29"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
         <v>5</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1869,9 +1886,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="36"/>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
@@ -1879,11 +1896,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1893,17 +1910,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
@@ -1911,9 +1928,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="9" t="s">
         <v>46</v>
       </c>
@@ -1921,15 +1938,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="45"/>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>7</v>
       </c>
@@ -1943,77 +1960,77 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
         <v>8</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="28"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="28"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="28"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="39">
         <v>9</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
         <v>10</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2023,15 +2040,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="17"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
@@ -2039,25 +2056,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="22"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="39">
         <v>11</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2067,15 +2084,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="35"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="35"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="5" t="s">
         <v>33</v>
       </c>
@@ -2083,65 +2100,65 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="35"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
         <v>12</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="39">
         <v>13</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
         <v>14</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="24" t="s">
@@ -2151,15 +2168,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="44"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="44"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="34"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="9" t="s">
         <v>59</v>
       </c>
@@ -2167,133 +2184,133 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="44"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="15"/>
       <c r="D53" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="44"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="15"/>
       <c r="D54" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="45"/>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="16"/>
       <c r="D55" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="39">
         <v>15</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="35"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="35"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="35"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="35"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="36"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="40"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="33">
         <v>16</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="44"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="44"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="45"/>
+      <c r="D61" s="37"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="45"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="39">
         <v>17</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="35"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="35"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="36"/>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="40"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="36"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="D65" s="29"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
         <v>18</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C66" s="24" t="s">
@@ -2303,9 +2320,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="44"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="9" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2330,47 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="44"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="34"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="45"/>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="35"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="16"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="39">
         <v>19</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="36"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="40"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="29"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
         <v>20</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2363,17 +2380,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="44"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="34"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="44"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="34"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="9" t="s">
         <v>69</v>
       </c>
@@ -2381,9 +2398,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="44"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="9" t="s">
         <v>70</v>
       </c>
@@ -2391,407 +2408,388 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="45"/>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="39">
         <v>21</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="27" t="s">
         <v>118</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="35"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="38"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="35"/>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="44"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="38"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="35"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="44"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="38"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
-      <c r="B81" s="36"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="40"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="39"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
         <v>22</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="44"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="34"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="44"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="44"/>
+      <c r="D83" s="37"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="44"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="44"/>
+      <c r="D84" s="37"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="44"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="45"/>
+      <c r="D85" s="37"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="35"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="45"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="D86" s="38"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="39">
         <v>23</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="27" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="35"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="44"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="35"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="36"/>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="40"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="36"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="D89" s="29"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="33">
         <v>24</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="44"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="44"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="44"/>
+      <c r="D91" s="37"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="34"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="44"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="44"/>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="34"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="44"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="44"/>
+      <c r="D93" s="37"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="34"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="44"/>
-    </row>
-    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="45"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="45"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
+      <c r="D95" s="38"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="39">
         <v>25</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="35"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="44"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="35"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="35"/>
+      <c r="D97" s="28"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="44"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="35"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="36"/>
+      <c r="D98" s="28"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="40"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="36"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="33">
         <v>26</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="44"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="34"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="44"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="44"/>
+      <c r="D101" s="37"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="34"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="44"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="45"/>
+      <c r="D102" s="37"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="45"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
+      <c r="D103" s="38"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="39">
         <v>27</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="27" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="35"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="44"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="35"/>
-    </row>
-    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="36"/>
+      <c r="D105" s="28"/>
+    </row>
+    <row r="106" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="40"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D106" s="36"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
+      <c r="D106" s="29"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
         <v>28</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="44"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="34"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="44"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="44"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="34"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="44"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="44"/>
+      <c r="D109" s="37"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="34"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="44"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="44"/>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="34"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="44"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="44"/>
+      <c r="D111" s="37"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="34"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="44"/>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="44"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="34"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="44"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="44"/>
+      <c r="D113" s="37"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="34"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="44"/>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="44"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="34"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D115" s="44"/>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="45"/>
+      <c r="D115" s="37"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="B100:B103"/>
     <mergeCell ref="D100:D103"/>
@@ -2808,29 +2806,48 @@
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DipWebDev\skillset\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FDA22-500F-4A84-8B58-4DE6B89FA32A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB486F1-4321-43D8-8E07-994F460CDB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>Project Implementation Plan</t>
   </si>
@@ -107,29 +107,6 @@
   </si>
   <si>
     <t>Hazardous substances register</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>John</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Nathan</t>
-    </r>
   </si>
   <si>
     <t>WHS hazard inspection procedure</t>
@@ -582,6 +559,12 @@
     <t>Task 5 - 28 Criteria Items</t>
   </si>
   <si>
+    <t xml:space="preserve"> ** Check the Criteria items tab for 'Volunteer' work.</t>
+  </si>
+  <si>
+    <t>Kieran</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -589,7 +572,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Audit </t>
+      <t>John</t>
     </r>
     <r>
       <rPr>
@@ -599,36 +582,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>All 28 criteria items are met</t>
+      <t xml:space="preserve"> and Nathan</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> ** Check the Criteria items tab for 'Volunteer' work.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Audit all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criteria items are met</t>
+    </r>
+  </si>
+  <si>
+    <t>Total complete of 23 tasks</t>
+  </si>
+  <si>
+    <t>Task complete</t>
+  </si>
+  <si>
+    <t>Lianne v1 / Fanny v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +721,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -856,24 +861,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,128 +886,135 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,31 +1326,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="81.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1349,11 +1360,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -1363,11 +1374,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1377,69 +1388,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1448,59 +1458,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1509,16 +1528,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
@@ -1528,11 +1547,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -1542,11 +1561,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
@@ -1556,23 +1575,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
@@ -1582,34 +1603,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1618,23 +1645,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1644,11 +1676,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1658,9 +1690,113 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49">
+        <f>SUM(D4:D28)</f>
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="50">
+        <f>D30/23</f>
+        <v>0.61478260869565216</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1671,1108 +1807,1130 @@
   </sheetPr>
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C115" sqref="C108:C115"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="48.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="38">
+        <v>2</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>3</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="38">
+        <v>4</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <v>5</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="38">
+        <v>6</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="16">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="38">
+        <v>8</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <v>9</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="38">
+        <v>10</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <v>11</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
-        <v>1</v>
-      </c>
-      <c r="B4" s="47" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="29"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="30"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="38">
+        <v>12</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="28">
+        <v>13</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="30"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="38">
+        <v>14</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="39"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="40"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="28">
+        <v>15</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="33"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="30"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="38">
+        <v>16</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="40"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="28">
+        <v>17</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="29"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="33"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="30"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="34"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="38">
+        <v>18</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="39"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="39"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="40"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="28">
+        <v>19</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="30"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="38">
+        <v>20</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="39"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="39"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="39"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="40"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="28">
+        <v>21</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="42"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>4</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>5</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="13" t="s">
+      <c r="D77" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>6</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="9" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="29"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="36"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="29"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="36"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="29"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>7</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>8</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="12" t="s">
+      <c r="D80" s="36"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="30"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="37"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="38">
+        <v>22</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
-        <v>9</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
-        <v>10</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>11</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="D82" s="41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
-        <v>12</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
-        <v>13</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
-        <v>14</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
-        <v>15</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="27" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="39"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="39"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="42"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="39"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="42"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="40"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="43"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="28">
+        <v>23</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="29"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="33"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="30"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="34"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="38">
+        <v>24</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
-        <v>16</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="37"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="38"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
-        <v>17</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="27" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="39"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="42"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="42"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="42"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="42"/>
+    </row>
+    <row r="95" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="40"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="43"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="28">
+        <v>25</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="29"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="29"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="33"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="30"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="34"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="38">
+        <v>26</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="28"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
-        <v>18</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
-        <v>19</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="27" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="39"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="42"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="39"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="42"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="40"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="43"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="28">
+        <v>27</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="29"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="30"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="34"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="38">
+        <v>28</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="29"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
-        <v>20</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
-        <v>21</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="31"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="32"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
-        <v>22</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="37"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="37"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="37"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="38"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
-        <v>23</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="28"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
-        <v>24</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="37"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" s="37"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D93" s="37"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="37"/>
-    </row>
-    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="35"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="38"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="39">
-        <v>25</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="28"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="28"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
-        <v>26</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="37"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="37"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="38"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="39">
-        <v>27</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="28"/>
-    </row>
-    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="33">
-        <v>28</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C107" s="10" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="39"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="42"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="39"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="37"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="9" t="s">
+      <c r="D109" s="42"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="39"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="37"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="9" t="s">
+      <c r="D110" s="42"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="39"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="42"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="39"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="37"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="37"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="9" t="s">
+      <c r="D112" s="42"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="39"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="37"/>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="42"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="42"/>
+    </row>
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="39"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="37"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="37"/>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115" s="37"/>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="38"/>
+      <c r="D115" s="42"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="40"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="D90:D95"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="B100:B103"/>
     <mergeCell ref="D100:D103"/>
@@ -2789,48 +2947,26 @@
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>

--- a/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
+++ b/Jun 21 - WHS Assess 2 - Report/Project-Implementation-Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DipWebDev\skillset\Webbies19\Jun 21 - WHS Assess 2 - Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2019 Semester 1\Diploma\WHS\Collaboration - WHS doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB486F1-4321-43D8-8E07-994F460CDB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31CDE22-2818-4661-946A-C693AE7A7A2A}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -619,7 +618,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -936,78 +935,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="43" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
@@ -1325,28 +1324,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5695D-2648-4B59-B8F9-85A5774BF697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="81.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1388,21 +1387,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1528,12 +1527,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1690,22 +1689,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="47" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49">
+      <c r="C30" s="26"/>
+      <c r="D30" s="27">
         <f>SUM(D4:D28)</f>
         <v>14.14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="47" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="50">
+      <c r="C31" s="26"/>
+      <c r="D31" s="28">
         <f>D30/23</f>
         <v>0.61478260869565216</v>
       </c>
@@ -1801,31 +1800,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF50D834-31B8-4264-8EED-BFEB6F9FB230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="48.08984375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>88</v>
@@ -1837,165 +1836,165 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="31">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="38">
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="26"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>5</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2005,9 +2004,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34"/>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="11" t="s">
         <v>41</v>
       </c>
@@ -2015,11 +2014,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>6</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="32" t="s">
         <v>100</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2029,17 +2028,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="7" t="s">
         <v>44</v>
       </c>
@@ -2047,9 +2046,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="7" t="s">
         <v>45</v>
       </c>
@@ -2057,15 +2056,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43"/>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>7</v>
       </c>
@@ -2079,77 +2078,77 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="38">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
         <v>8</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="26"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="26"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="26"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="27"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
         <v>9</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="38">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
         <v>10</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -2159,15 +2158,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="15"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7" t="s">
         <v>32</v>
       </c>
@@ -2175,25 +2174,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
         <v>11</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="35" t="s">
         <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2203,15 +2202,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
-      <c r="B42" s="33"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
-      <c r="B43" s="33"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="3" t="s">
         <v>32</v>
       </c>
@@ -2219,65 +2218,65 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
-      <c r="B44" s="33"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="34"/>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="11"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="38">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
         <v>12</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="40"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="38">
         <v>13</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="38">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
         <v>14</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="32" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -2287,15 +2286,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="7" t="s">
         <v>58</v>
       </c>
@@ -2303,133 +2302,133 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
-      <c r="B53" s="42"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="13"/>
       <c r="D53" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
-      <c r="B54" s="42"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="13"/>
       <c r="D54" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="40"/>
-      <c r="B55" s="43"/>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="14"/>
       <c r="D55" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="28">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38">
         <v>15</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="29"/>
-      <c r="B57" s="33"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="29"/>
-      <c r="B58" s="33"/>
+      <c r="D57" s="36"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="34"/>
+      <c r="D58" s="36"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="34"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="38">
+      <c r="D59" s="37"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
         <v>16</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
-      <c r="B61" s="42"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="42"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="40"/>
-      <c r="B62" s="43"/>
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="43"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="28">
+      <c r="D62" s="34"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="38">
         <v>17</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="29"/>
-      <c r="B64" s="33"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="30"/>
-      <c r="B65" s="34"/>
+      <c r="D64" s="36"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="34"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="38">
+      <c r="D65" s="37"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="29">
         <v>18</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="22" t="s">
@@ -2439,9 +2438,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="39"/>
-      <c r="B67" s="42"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="7" t="s">
         <v>32</v>
       </c>
@@ -2449,47 +2448,47 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="39"/>
-      <c r="B68" s="42"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="40"/>
-      <c r="B69" s="43"/>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="28">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="38">
         <v>19</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="30"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="34"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="38">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="37"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="29">
         <v>20</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -2499,17 +2498,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
-      <c r="B73" s="42"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
-      <c r="B74" s="42"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="7" t="s">
         <v>68</v>
       </c>
@@ -2517,9 +2516,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="39"/>
-      <c r="B75" s="42"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="7" t="s">
         <v>69</v>
       </c>
@@ -2527,413 +2526,395 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="28">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="38">
         <v>21</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="35" t="s">
         <v>117</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="29"/>
-      <c r="B78" s="33"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="36"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="29"/>
-      <c r="B79" s="33"/>
+      <c r="D78" s="46"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="36"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="29"/>
-      <c r="B80" s="33"/>
+      <c r="D79" s="46"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="36"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="30"/>
-      <c r="B81" s="34"/>
+      <c r="D80" s="46"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="37"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="38">
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
         <v>22</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="39"/>
-      <c r="B83" s="42"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="42"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="39"/>
-      <c r="B84" s="42"/>
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="42"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
-      <c r="B85" s="42"/>
+      <c r="D84" s="33"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="42"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
+      <c r="D85" s="33"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="43"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="28">
+      <c r="D86" s="34"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="38">
         <v>23</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="35" t="s">
         <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="29"/>
-      <c r="B88" s="33"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="30"/>
-      <c r="B89" s="34"/>
+      <c r="D88" s="36"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="34"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="38">
+      <c r="D89" s="37"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="29">
         <v>24</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="39"/>
-      <c r="B91" s="42"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="42"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="39"/>
-      <c r="B92" s="42"/>
+      <c r="D91" s="33"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="42"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
+      <c r="D92" s="33"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="42"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="39"/>
-      <c r="B94" s="42"/>
+      <c r="D93" s="33"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="42"/>
-    </row>
-    <row r="95" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43"/>
+      <c r="D94" s="33"/>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="43"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="28">
+      <c r="D95" s="34"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="38">
         <v>25</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="29"/>
-      <c r="B97" s="33"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="33"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="29"/>
-      <c r="B98" s="33"/>
+      <c r="D97" s="36"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="33"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="30"/>
-      <c r="B99" s="34"/>
+      <c r="D98" s="36"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="34"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="38">
+      <c r="D99" s="37"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="29">
         <v>26</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="39"/>
-      <c r="B101" s="42"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="30"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="42"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="39"/>
-      <c r="B102" s="42"/>
+      <c r="D101" s="33"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="30"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="42"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="40"/>
-      <c r="B103" s="43"/>
+      <c r="D102" s="33"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="31"/>
+      <c r="B103" s="34"/>
       <c r="C103" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D103" s="43"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="28">
+      <c r="D103" s="34"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="38">
         <v>27</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="35" t="s">
         <v>124</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="29"/>
-      <c r="B105" s="33"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="33"/>
-    </row>
-    <row r="106" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="30"/>
-      <c r="B106" s="34"/>
+      <c r="D105" s="36"/>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="34"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="38">
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
         <v>28</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="32" t="s">
         <v>125</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="39"/>
-      <c r="B108" s="42"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="42"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="39"/>
-      <c r="B109" s="42"/>
+      <c r="D108" s="33"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="30"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D109" s="42"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="39"/>
-      <c r="B110" s="42"/>
+      <c r="D109" s="33"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="30"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D110" s="42"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="39"/>
-      <c r="B111" s="42"/>
+      <c r="D110" s="33"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="30"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="42"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="39"/>
-      <c r="B112" s="42"/>
+      <c r="D111" s="33"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="30"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D112" s="42"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="39"/>
-      <c r="B113" s="42"/>
+      <c r="D112" s="33"/>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="30"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D113" s="42"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
+      <c r="D113" s="33"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="30"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="7"/>
-      <c r="D114" s="42"/>
-    </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="39"/>
-      <c r="B115" s="42"/>
+      <c r="D114" s="33"/>
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="42"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="40"/>
-      <c r="B116" s="43"/>
+      <c r="D115" s="33"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="43"/>
+      <c r="D116" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="D100:D103"/>
     <mergeCell ref="D60:D62"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B63:B65"/>
@@ -2945,31 +2926,49 @@
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="D100:D103"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C115" r:id="rId1" xr:uid="{A92E8291-9674-4699-8238-CD54BFA6A5A0}"/>
+    <hyperlink ref="C115" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
